--- a/medicine/Psychotrope/Bière_traditionnelle/Bière_traditionnelle.xlsx
+++ b/medicine/Psychotrope/Bière_traditionnelle/Bière_traditionnelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_traditionnelle</t>
+          <t>Bière_traditionnelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n'existe pas d'appellation officielle pour désigner la bière traditionnelle (autochtone, indigène, tropicale, ethnique ou ancestrale), brassée depuis des temps lointains par nombre de populations autochtones réparties sur tous les continents. Les anciens Égyptiens disposaient déjà de maisons de bière.
-Aujourd'hui, la bière dans sa définition légale[1] désigne un produit contenant au minimum de l'eau, du malt d'orge, du houblon et de la levure comme ingrédients. Toutefois, en Occident, au Moyen Âge, le gruit remplaçait le houblon et la levure n'existait pas encore en tant que telle. On brassait aussi bien avec du froment que du seigle ou d'autres céréales. Certains types de bières artisanales ou industrielles forment d'ailleurs désormais des types de bières spécifiques en vertu de ces ingrédients particuliers (Oatmeal Stout, Emmerbier, Dinkelbier, Roggenbier, etc.). 
+Aujourd'hui, la bière dans sa définition légale désigne un produit contenant au minimum de l'eau, du malt d'orge, du houblon et de la levure comme ingrédients. Toutefois, en Occident, au Moyen Âge, le gruit remplaçait le houblon et la levure n'existait pas encore en tant que telle. On brassait aussi bien avec du froment que du seigle ou d'autres céréales. Certains types de bières artisanales ou industrielles forment d'ailleurs désormais des types de bières spécifiques en vertu de ces ingrédients particuliers (Oatmeal Stout, Emmerbier, Dinkelbier, Roggenbier, etc.). 
 Dans le monde anglo-saxon, l'appellation « bière » souvent réservée aux boissons fermentées de moins de 5 % d'alcool en volume, alors que le terme de malt liquor ou « liqueur de malt » est employé pour désigner les bières de 5 à 9 % en vol. et celui de wine ou « vin » (barley wine, rice wine) pour celles comprenant entre 10 et 20 % d'alcool en volume.
 Le mode de préparation ou le processus de fabrication de la bière est similaire entre les continents. La bière est une boisson alcoolisée obtenue à partir de la fermentation des sucres simples obtenus par la saccharification (par des enzymes provenant de céréales maltées, de racines, de champignons ou de la salive) de matières amylacées (des céréales en général, mais des graminées ou des tubercules conviennent aussi, voire des fruits).
-Le pain liquide a une fonction essentielle dans nombre de sociétés qui consomment ces bières, auxquelles les enfants ont souvent accès, en plus de rôles sociaux ou rituels qui peuvent y être associés. La consommation individuelle de ces bières est très importante dans certains pays africains (660 millions de litres en 2016 pour le Cameroun[2]) et dépasse les records européens concernant la bière industrielle. 
+Le pain liquide a une fonction essentielle dans nombre de sociétés qui consomment ces bières, auxquelles les enfants ont souvent accès, en plus de rôles sociaux ou rituels qui peuvent y être associés. La consommation individuelle de ces bières est très importante dans certains pays africains (660 millions de litres en 2016 pour le Cameroun) et dépasse les records européens concernant la bière industrielle. 
 De manière générale, ces bières traditionnelles ne sont ni légères ni rafraîchissantes ; au contraire, elles ont un fort potentiel nutritif, et présentent un aspect trouble, voire opaque, délivrant peu de gaz (à moins qu'il ne s'agisse de bière verte ou tiède en pleine fermentation) et ayant un goût aigre ou acidulé. On les boit très souvent à la paille afin de ne pas absorber des matières résiduelles et on ne les conserve pas. Quant à leurs taux d'alcool, ils sont très variables allant de 1 à 16 % en volume.
 La production à petite échelle individuelle ne signifie pas que leur poids économique soit minime ; au contraire, la production de bière de banane ou de sorgho se chiffre en millions d'hectolitres et concurrence vivement le marché des bières industrielles quand il ne le domine pas (jusqu'à 80 % de part de marché), étant plus abordable. Les brasseurs occidentaux ne s'y sont d'ailleurs pas trompés en proposant à leur clientèle tropicale des bières brassées à l'aide de denrées locales, donc moins chères à importer et à vendre, et plus proches du goût traditionnel local. Comme par ailleurs il existe de vrais problèmes d'hygiène des petites productions locales, au point que certains pays africains interdisent désormais le brassage domestique, les produits de substitutions sont du coup très recherchés mais le savoir ancestral est dès lors menacé. 
 </t>
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_traditionnelle</t>
+          <t>Bière_traditionnelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,38 +529,280 @@
           <t>Céréales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Toutes les céréales se prêtent à l'amylase, toutefois, depuis les temps anciens, certaines ont été préférées. D'autres ne sont pas mentionnées ici faute de trouver un nom précis de bière traditionnelle qui en fasse usage.
-Bière d'amidonnier
-L'amidonnier était très prisée par les Anciens et on la retrouve notamment dans :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les céréales se prêtent à l'amylase, toutefois, depuis les temps anciens, certaines ont été préférées. D'autres ne sont pas mentionnées ici faute de trouver un nom précis de bière traditionnelle qui en fasse usage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Céréales</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bière d'amidonnier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'amidonnier était très prisée par les Anciens et on la retrouve notamment dans :
 Sikaru (Sumer)
-Zythum (Égypte antique)
-Bière d'avoine
-L'avoine est une céréale assez pauvre destinée à l'alimentation animale, et par défaut à des bières rustiques :
+Zythum (Égypte antique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Céréales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bière d'avoine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'avoine est une céréale assez pauvre destinée à l'alimentation animale, et par défaut à des bières rustiques :
 Chang, Tongba ou Marwa (Bhoutan, Chine, Inde, Népal)
 Keptinis alus (Lituanie)
-Sahti (Finlande)
-Bière de blé tendre (froment)
-En raison de la prédilection de son usage en panification, le blé est moins usitée en brasserie que l'orge.
+Sahti (Finlande)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Céréales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bière de blé tendre (froment)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En raison de la prédilection de son usage en panification, le blé est moins usitée en brasserie que l'orge.
 Ce style de bière est communément dénommé Bière Blanche, ce sont des bières de fermentation haute contenant du froment non malté, non filtrées ce qui leur donne cet aspect laiteux qui est à l'origine de leur nom. De nos jours, la levure utilisée est la Saccharomyces cerevisiae. Il existe deux grandes traditions de bière « blanche » : en Belgique (Witbier ou Tarwebier) et en Bavière (Weizenbier).
-Bière d'éleusine
-L'éleusine est une céréale secondaire qui joue un rôle important dans certains pays africains avec notamment :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Céréales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bière d'éleusine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'éleusine est une céréale secondaire qui joue un rôle important dans certains pays africains avec notamment :
 Amargwa y uburo (Rwanda)
 Amasoni (Kenya)
 Aua (Congo)
 Busaa et Bousa (Kenya, Ouganda, Tanzanie)
 Chang, Tongba ou Marwa (Bhoutan, Chine, Inde, Népal)
 Daloy et Tchergue (Cameroun)
-Tchapalo ou Chapalo (Bénin, Burkina Fasso, Côte d'Ivoire, Niger, Togo)
-Bière d'épeautre
-L'épeautre est rarement employée :
-Sikaru (Sumer)
-Bière de fonio noir
-Le fonio noir est une rare et très ancienne céréale africaine :
-Tchapalo ou Chapalo ou Dolo (Mali, Bénin, Burkina Fasso, Côte d'Ivoire, Niger, Togo)
-Bière de maïs
-Abati (Argentine, Paraguay),
+Tchapalo ou Chapalo (Bénin, Burkina Fasso, Côte d'Ivoire, Niger, Togo)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Céréales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bière d'épeautre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'épeautre est rarement employée :
+Sikaru (Sumer)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Céréales</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bière de fonio noir</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le fonio noir est une rare et très ancienne céréale africaine :
+Tchapalo ou Chapalo ou Dolo (Mali, Bénin, Burkina Fasso, Côte d'Ivoire, Niger, Togo)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Céréales</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bière de maïs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Abati (Argentine, Paraguay),
 Atol de maíz tierno (Guatemala),
 Bangberu, Gualo, Kibuku et Ovallo (Congo), Batári, Charagua,
 Chicha, Izquiate, Nahua, Ostoche, Quebranta huesos, Sendecho, Sugíki, Tepache et Tesgüino (Mexique),
@@ -566,20 +820,160 @@
 Sora (Pérou),
 Tchapalo ou Chapalo (Bénin, Burkina Fasso, Côte d'Ivoire, Niger, Togo),
 Tiswin (États-Unis),
-Walwa wakabaka (Zimbabwe)
-Bière de mil
-Beaucoup de variétés de mil existent offrant diverses recettes de bières selon leurs ingrédients ou mélanges, tant en Asie qu'en Afrique ou en Amérique.
-Dolo (MALI), Chibuku (Zambie), Bangberu (Gabon), Busaa, Bousa et (Burkina) Yargatenga (Éthiopie, Kenya, Ouganda, Tanzanie), Kaffir beer, Bantu beer, Sekete ou Utshwala (Afrique du Sud, Zimbabwe), Kibuku (Congo), Kwete (Ouganda) 
-Bière de millet
-Il en existe plusieurs variétés en Afrique et en Asie selon le type de malt utilisé : 
+Walwa wakabaka (Zimbabwe)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Céréales</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bière de mil</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beaucoup de variétés de mil existent offrant diverses recettes de bières selon leurs ingrédients ou mélanges, tant en Asie qu'en Afrique ou en Amérique.
+Dolo (MALI), Chibuku (Zambie), Bangberu (Gabon), Busaa, Bousa et (Burkina) Yargatenga (Éthiopie, Kenya, Ouganda, Tanzanie), Kaffir beer, Bantu beer, Sekete ou Utshwala (Afrique du Sud, Zimbabwe), Kibuku (Congo), Kwete (Ouganda) </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Céréales</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bière de millet</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Il en existe plusieurs variétés en Afrique et en Asie selon le type de malt utilisé : 
 millet : Ajon (Ouganda), Antakar, Cochate, Nylon et Pipi (Tchad), Arehara et Burkutu (Niger), Balsa, Bia, Bours, Bumma, Doley, Ouzam, Peh et Yi (Cameroun), Bière de mil et Pourr (Sénégal), Bozo (Kirghisistan), Bouza (Égypte, Nigéria, Soudan), Braga ou Bosa (Europe de l'Est), Chang, Tongba ou Marwa (Bhoutan, Chine, Inde, Népal), Dam (Bénin, Burkina Fasso, Ghana, Togo), Finyipe, Katata et Nshikwa (Zambie), Impeke (Burundi), Jaanr ou Bhatte jaanr (Inde), Kaffir beer, Bantu beer, Imfulamfula, Isiqatha, Umqombotha ou Utshwala (Afrique du Sud, Zimbabwe), Khaung, Chin khaung ou Kachin khaung (Birmanie), Mahango, Oshikundu et Ontaku (Angola, Namibie), Mahewu et Magada (Zimbabwe), Merissa (Soudan), Otheka et Pala (Mozambique), Parabiè (Grèce antique), Phumpha (Malawi), Raam (Burkina Fasso), Sujiu (Chine ancienne), Tchapalo ou Chapalo (Bénin, Burkina Fasso, Côte d'Ivoire, Niger, Togo)
 sorgho : Kaffir beer, Bantu beer, Imfulamfula, Isiqatha, Umqombotha ou Utshwala (Afrique du Sud, Zimbabwe)
-blé : Tella ou Talla (Éthiopie)
-Bière de millet des oiseaux
-Rare variété utilisée en Inde dans les zones tribales :
-Jann (Inde)
-Bière d'orge
-Avant d'intéresser les brasseurs industriels, l'orge a depuis longtemps été choisie pour confectionner la bière selon des recettes variées :
+blé : Tella ou Talla (Éthiopie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Céréales</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bière de millet</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Bière de millet des oiseaux</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Rare variété utilisée en Inde dans les zones tribales :
+Jann (Inde)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Céréales</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bière d'orge</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant d'intéresser les brasseurs industriels, l'orge a depuis longtemps été choisie pour confectionner la bière selon des recettes variées :
 Bordè et Farso (Éthiopie)
 Bouza (Égypte, Nigéria, Soudan)
 Brûtos (Grèce antique)
@@ -601,9 +995,43 @@
 Sessar (Hittite)
 Sikaru (Sumer)
 Zambumbia (Mexique)
-Zythum et Dizythum (Égypte ancienne) 
-Bière de riz
-Il en existe plusieurs variétés en Asie selon le type de champignon (microscopique) utilisé. Puisque le riz utilisé est cuit et non malté, les Anglo-Saxons les qualifient souvent de Rice Wine, soit « vin de riz », mais « alcool de riz » serait plus exact  :
+Zythum et Dizythum (Égypte ancienne) </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Céréales</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bière de riz</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Il en existe plusieurs variétés en Asie selon le type de champignon (microscopique) utilisé. Puisque le riz utilisé est cuit et non malté, les Anglo-Saxons les qualifient souvent de Rice Wine, soit « vin de riz », mais « alcool de riz » serait plus exact  :
 Brem (Indonésie)
 Chang, Tongba ou Marwa (Bhoutan, Chine, Inde, Népal)
 Choujiu, Huángjiǔ, Mijiu, Lao chao (Chine)
@@ -614,25 +1042,162 @@
 Tapuy, Kulapo ou Pangasy (Philippines)
 Tuak ou Tapaï (Bornéo, Malaisie)
 Zozu (Myanmar)
-Zutho, Apong, Bunkchung, Chi, Chu, Chuak, Daru, Handia, Ijaduijang, Joo, Jumai, Laopani, Lenda, Madhu, Mod, Morpo, Ruhi, Pachwaï, Peja, Sura, Suze et Zu (Inde)
-Bière de seigle
-Cette céréale rustique est depuis longtemps connue dans le brassage domestique des pays de l'Est :
+Zutho, Apong, Bunkchung, Chi, Chu, Chuak, Daru, Handia, Ijaduijang, Joo, Jumai, Laopani, Lenda, Madhu, Mod, Morpo, Ruhi, Pachwaï, Peja, Sura, Suze et Zu (Inde)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Céréales</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bière de seigle</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette céréale rustique est depuis longtemps connue dans le brassage domestique des pays de l'Est :
 Kalja et Sahti (Finlande)  
 Keptinis alus (Lituanie)
 Kvas (Biélorussie, Estonie, Lettonie, Lituanie, Ouzbékistan, Pologne, Russie, Ukraine)
-Bière de sorgho
-Il en existe plusieurs variétés en Afrique selon le type de malt utilisé :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Céréales</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bière de sorgho</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Il en existe plusieurs variétés en Afrique selon le type de malt utilisé :
 millet : Dolo (Burkina Fasso, Mali), Kaffir beer, Bantu beer, Imfulamfula, Isiqatha, Umqombotha ou Utshwala (Afrique du Sud, Zimbabwe), Pito (Nigéria), Sibamu (Zambie)
 sorgho : Abrey et Merissa (Soudan), Ajouet et Bussa (Ouganda), Amgba, Balsa, Bolo, Doleyna, Fourdou, Himi, Kass, Koumorri, Mgba, Mouzoum, Soum, Suma et Zoum (Cameroun), Amargwa orikagage (Kenya, Rwanda), Bazagbara, Bofunda et Kibuku (Congo), Bil bil ou Bili bili (Cameroun, République Centrafricaine, Tchad), Bojalwa ou Khadi (Botswana), Bordè (Éthiopie), Burukutu (Nigéria, Bénin, Ghana), Bwalwa, Mbwejeo et Pombe (Tanzanie), Chang’aa  et Nubiangin (Kenya), Chibuku (Zambie, Zimbabwe), Cochet (Tchad), Dolo (Burkina Fasso, Mali, Sénégal, Togo), Doro, Mahewu, Magada et Qîlika (Zimbabwe), Finyipe (Zambie), Gamalua et Ndyik (Kenya), Impeke (Burundi), Inturire (Rwanda), Kaffir beer, Amatonga, Boyalla, Bantu beer, Imfulamfula, Isiqatha, Umqombotha et Utshwala (Afrique du Sud, Zimbabwe), Mbarag et Ndyik (Sénégal), Otheka et Pala (Mozambique), Ocimbombo, Oshikundu, Omakau, Oumbulonga, Onkhela et Owale (Angola, Namibie), Phumpha (Malawi), Pito, Poitou, Nandom, Kokmba, Togo et Dagarti (Ghana, Nigéria), Souloum (Togo), Tchapalo ou Chapalo (Bénin, Burkina Fasso, Côte d'Ivoire, Niger, Togo), Tchoukoutou (Bénin)
 Ikigage (Amarwa y'amasaka) (Rwanda), Chibuku et Walwa wamasa (Zambie, Zimbabwe), Kaffir beer, Bantu beer, Imfulamfula, Isiqatha, Sekete, Umqombotha ou Utshwala (Afrique du Sud)  
 Certaines variétés emploient des racines à la place du malt :
-Munkoyo (Congo, Zambie)
-Bière de teff
-Céréale secondaire consommée en Afrique de l'Est :
+Munkoyo (Congo, Zambie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Céréales</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bière de teff</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Céréale secondaire consommée en Afrique de l'Est :
 Shamit (Ethiopie)
-Tella ou Talla (Éthiopie)
-Divers
-Certaines variétés emploient des racines à la place du malt :
+Tella ou Talla (Éthiopie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Céréales</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Certaines variétés emploient des racines à la place du malt :
 Munkoyo (Congo, Zambie) 
 D'autres sont mâchées puis recuites :
 Cauim (Brésil)
@@ -640,41 +1205,146 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bi%C3%A8re_traditionnelle</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Rhizomes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'usage de tubercules ou de racines comme matière première amylacée est répandu depuis longtemps, y compris avec la pomme de terre, bien qu'ici certaines variétés ne soient pas documentées.
-Bière d'igname
-Ce tubercule riche en féculent se prête aussi à la fermentation alcoolique :
-Kalili (Guyane). Le célèbre anthropologue, Matthieu Le Bihan, après moult voyages dans les pays producteurs d'igname, a développé, à son retour en France, une bière à base d'igname et de ty punch, bière qu'il nomma la Vaillante. L'idée lui est venue de son observation des producteurs d'igname, ceux-ci gardant une activité sexuelle régulière très tardive, au-delà des 80 ans. Cette bière ne dépassera pas le cap expérimental. Même si cette bière donne des facultés physiques aux hommes, elle apporte aussi son lot de désagréments : jaunissement des dents, pousse rapide des onglons et surtout un effet laxatif extrême, incompatible avec l'effet aphrodisiaque recherché.
-« Bière » de gingembre
-Cette racine bien connue a donné aux Caraïbes une boisson alcoolisée (sans matière amylacée au départ) devenue par la suite très en vogue en Amérique du Nord :
-Ginger beer (Caraïbes)
-Bière de manioc
-Il en existe plusieurs variétés en Afrique et en Amérique selon le type de malt utilisé :
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'usage de tubercules ou de racines comme matière première amylacée est répandu depuis longtemps, y compris avec la pomme de terre, bien qu'ici certaines variétés ne soient pas documentées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Rhizomes</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bière d'igname</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Ce tubercule riche en féculent se prête aussi à la fermentation alcoolique :
+Kalili (Guyane). Le célèbre anthropologue, Matthieu Le Bihan, après moult voyages dans les pays producteurs d'igname, a développé, à son retour en France, une bière à base d'igname et de ty punch, bière qu'il nomma la Vaillante. L'idée lui est venue de son observation des producteurs d'igname, ceux-ci gardant une activité sexuelle régulière très tardive, au-delà des 80 ans. Cette bière ne dépassera pas le cap expérimental. Même si cette bière donne des facultés physiques aux hommes, elle apporte aussi son lot de désagréments : jaunissement des dents, pousse rapide des onglons et surtout un effet laxatif extrême, incompatible avec l'effet aphrodisiaque recherché.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Rhizomes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>« Bière » de gingembre</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Cette racine bien connue a donné aux Caraïbes une boisson alcoolisée (sans matière amylacée au départ) devenue par la suite très en vogue en Amérique du Nord :
+Ginger beer (Caraïbes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Rhizomes</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Bière de manioc</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Il en existe plusieurs variétés en Afrique et en Amérique selon le type de malt utilisé :
 mil : Kaffir beer, Bantu beer, Imfulamfula, Isiqatha, Umqombotha ou Utshwala (Afrique du Sud, Zimbabwe)
 sorgho : Burukutu (Nigéria, Ghana), Kaffir beer, Bantu beer ou Utshwala (Afrique du Sud, Zimbabwe), Otheka (Mozambique)
 maïs : Bakno (Afrique du Sud)
@@ -688,95 +1358,372 @@
 Sakura, Nihamanci, Nijiamanchi (Andes, Surinam, Brésil)
 Malicha, Dubia ou Yakupa (Brésil)
 Masato (Amazonie, Andes)
-Paiwari (Antilles)
-Bière de patate douce
-La bière de patate douce (Ipomea batatas) est une boisson ancienne de la zone Caraïbe connue sous le nom de mabi (mapi/nap'i = patate en langue caribe). La patate douce joue un rôle alimentaire aussi important que le manioc pour les amérindiens Caribes. La bière mabi intervient dans tous les moments importants de leur vie sociale (religion, médecine, puberté des filles et des garçons). À leur arrivée vers 1500, les Européens adopte la bière de patate douce entre le XVIe et le XVIIe siècle. Après cette date, le mabi devient la bière des esclaves africains dans les îles des Caraïbes. Chose surprenante, ce sont les femmes amérindiennes qui préparent le mabi et la bière de manioc dont les techniques de brassage se ressemblent. À partir du XIXe siècle, le statut du mabi change. Il devient synonyme de boisson indigène, boisson des plus pauvres, boisson déclassée par rapport au vin, au rhum et autres alcools industriels. La bière mabi tombe dans l'oubli. Au XXe siècle, une boisson alcoolique  baptisée bois-maby (Antilles française) ou mauby (Barbade) est préparée avec du sucre de canne, du gingembre et une écorce de bois-mabi (Colubrina reclinata/elliptica, Guaïcum officinale). Elle n'a rien de commun avec la bière mabi.         
+Paiwari (Antilles)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Rhizomes</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Bière de patate douce</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>La bière de patate douce (Ipomea batatas) est une boisson ancienne de la zone Caraïbe connue sous le nom de mabi (mapi/nap'i = patate en langue caribe). La patate douce joue un rôle alimentaire aussi important que le manioc pour les amérindiens Caribes. La bière mabi intervient dans tous les moments importants de leur vie sociale (religion, médecine, puberté des filles et des garçons). À leur arrivée vers 1500, les Européens adopte la bière de patate douce entre le XVIe et le XVIIe siècle. Après cette date, le mabi devient la bière des esclaves africains dans les îles des Caraïbes. Chose surprenante, ce sont les femmes amérindiennes qui préparent le mabi et la bière de manioc dont les techniques de brassage se ressemblent. À partir du XIXe siècle, le statut du mabi change. Il devient synonyme de boisson indigène, boisson des plus pauvres, boisson déclassée par rapport au vin, au rhum et autres alcools industriels. La bière mabi tombe dans l'oubli. Au XXe siècle, une boisson alcoolique  baptisée bois-maby (Antilles française) ou mauby (Barbade) est préparée avec du sucre de canne, du gingembre et une écorce de bois-mabi (Colubrina reclinata/elliptica, Guaïcum officinale). Elle n'a rien de commun avec la bière mabi.         
 Ce tubercule est souvent utilisée en remplacement du maïs :
-Chicha (Amazonie, Andes)
-« Bière » au sassafras
-Cette racine est utilisée pour parfumer une boisson parfois alcoolisée (mais ne contenant pas de matière amylacée au départ) originaire d'Amérique du Nord :
+Chicha (Amazonie, Andes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Rhizomes</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>« Bière » au sassafras</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Cette racine est utilisée pour parfumer une boisson parfois alcoolisée (mais ne contenant pas de matière amylacée au départ) originaire d'Amérique du Nord :
 Root beer ou Bière de racinette (Canada, États-Unis)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bi%C3%A8re_traditionnelle</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Fruits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les fruits sont très rarement mis à contribution pour l'élaboration de la bière mis à part les variétés amylacées dont la banane à bière est le principal représentant. Pour les autres, un ajout de céréales est nécessaire au brassage.
-« Bière » d'ananas
-Bush beer (Îles Cook, Hawaï, Polynésie)
-Tepache (Mexique), bien que qualifié parfois de bière, il s'agit d'un cocktail.
-Bière de banane
-Il en existe plusieurs variétés en Afrique, en Amérique et en Océanie selon le type de malt utilisé :
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont très rarement mis à contribution pour l'élaboration de la bière mis à part les variétés amylacées dont la banane à bière est le principal représentant. Pour les autres, un ajout de céréales est nécessaire au brassage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>« Bière » d'ananas</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Bush beer (Îles Cook, Hawaï, Polynésie)
+Tepache (Mexique), bien que qualifié parfois de bière, il s'agit d'un cocktail.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Bière de banane</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Il en existe plusieurs variétés en Afrique, en Amérique et en Océanie selon le type de malt utilisé :
 éleusine : Wari wa umbi (Tanzanie)
 mil : Mbégé et Orubisi (Tanzanie)
 sorgho : Agadadigi (Nigéria), Amavu, Kasiksi ou Kasi-kisi (Congo), Barwokole et Urwaga (Kenya), Butunda, Inkangaza et Ruhanzwe (Rwanda), Kisubi, Tonto, Ndizi, Musa, Kivuru, Kabula, Mbidde, Mwenge, Lubisi, Omulamba, Urgwagwa et Warangi (Ouganda, Rwanda, Burundi), Mbégé, Pombe et Wari (Tanzanie), Ogaza (Gabon)
 Bush beer (Îles Cook, Hawaï, Polynésie)
 Chicha (Amazonie, Andes)
-Masato (Amérique centrale)
-« Bière » de datte
-Rarement rencontrée car souvent reliée au vin de palme :
-Shekhar (Palestine antique), les historiens sont divisés quant au type de cette boisson (vin ou bière ?).
-Bière de fruit à pain
-Ce fruit de l'arbre à pain offre un matériau proche des féculents :
-Masato (Amazonie, Pérou) : le masato est fait soit avec du manioc (semble le plus fréquent[3]), soit avec du fruit à pain, soit avec du palmier pêche (Bactris gasipaes)[4]
-« Bière » de muratina
-Ce fruit de l'arbre à saucisse est utilisé bien qu'il ait la réputation de ne pas être comestible :
-Muratina (Kenya)
-« Bière » d'orange
-Bush beer, Koni, Kona, Kava et Maori kawa (Îles Cook, Polynésie, Hawaï)
+Masato (Amérique centrale)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>« Bière » de datte</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Rarement rencontrée car souvent reliée au vin de palme :
+Shekhar (Palestine antique), les historiens sont divisés quant au type de cette boisson (vin ou bière ?).</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Bière de fruit à pain</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Ce fruit de l'arbre à pain offre un matériau proche des féculents :
+Masato (Amazonie, Pérou) : le masato est fait soit avec du manioc (semble le plus fréquent), soit avec du fruit à pain, soit avec du palmier pêche (Bactris gasipaes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>« Bière » de muratina</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Ce fruit de l'arbre à saucisse est utilisé bien qu'il ait la réputation de ne pas être comestible :
+Muratina (Kenya)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>« Bière » d'orange</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Bush beer, Koni, Kona, Kava et Maori kawa (Îles Cook, Polynésie, Hawaï)
 Tepache (Mexique), bien que qualifié parfois de bière, il s'agit d'un cocktail.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bi%C3%A8re_traditionnelle</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Plantes diverses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t>D'autres plantes sont aussi utilisées en fonction de leurs distributions et de l'absence de céréales :
 Bruyère : Heather ale (Écosse)
@@ -788,31 +1735,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bi%C3%A8re_traditionnelle</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Arbres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
         <is>
           <t>La sève, voire l'écorce, de certains arbres est aussi utilisée à titre d'ingrédient principal :
 Bouleau : Birch beer (Canada, États-Unis)
@@ -821,61 +1770,65 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bi%C3%A8re_traditionnelle</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>Autres ingrédients</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
         <is>
           <t>Miel : Braggot ou Bracket (Écosse), Cervisia (Gaule), chicha (Paraguay), En aishi et Muratina (Kenya), Inkangaza et Inturire (Rwanda), Keerxima (Chine), Médalus (Lettonie), Walwa wakasolu (Zimbabwe), Wary wa ukyi (Tanzanie)</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bi%C3%A8re_traditionnelle</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Bière_traditionnelle</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_traditionnelle</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Ferments</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bières traditionnelles utilisent nombre de micro-organismes à titre de ferment, de levure ou de starter. Parmi les plus courants on trouve :
 Aspergillus niger, A. flavus, A. oryzae, Bacillus subtilis, Candida Krusei, Kloeckera apiculata, Koji, Lactobacillus bifermentans, L. casei, L. divergens, L. fermentum, L. fructivorans, L. viridescens, L. hilgardii, L. kandleri, L. delbruku, L. helieticus, L. plantarum, L. salivarius, Lactococcus lactis, Leuconostoc mesenteroides, Mucor rouxii, Penicillium damnosus, Rhizopus oryzae, Saccharomyces cerevisiae, S. elegans, Schizosaccharomycesn,Saccaromyces bruxellensis
